--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_23-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_23-21.xlsx
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>20:0</t>
   </si>
   <si>
     <t>رول اون ريكسونا25</t>
@@ -3692,17 +3689,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3710,7 +3707,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3736,7 +3733,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3744,7 +3741,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
@@ -3754,7 +3751,7 @@
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3762,7 +3759,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3770,7 +3767,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -3788,7 +3785,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3796,7 +3793,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -3814,7 +3811,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3840,7 +3837,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3866,7 +3863,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3874,7 +3871,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
@@ -3892,7 +3889,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3918,7 +3915,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3941,7 +3938,7 @@
     </row>
     <row r="115" ht="26.25" customHeight="1">
       <c r="K115" s="10">
-        <v>7462.1199999999999</v>
+        <v>7612.1199999999999</v>
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="10"/>
@@ -3949,19 +3946,19 @@
     </row>
     <row r="116" ht="16.5" customHeight="1">
       <c t="s" r="A116" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c t="s" r="F116" s="12">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="13"/>
       <c t="s" r="I116" s="14">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J116" s="14"/>
       <c r="K116" s="14"/>
